--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\EAS\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB0CA6-0DC3-416C-BD3B-70B86C0A8160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC9173-BE97-4F3A-A6E4-C7F3FA962351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,15 @@
     <sheet name="Provincia" sheetId="3" r:id="rId3"/>
     <sheet name="Estudios" sheetId="4" r:id="rId4"/>
     <sheet name="Clase" sheetId="5" r:id="rId5"/>
-    <sheet name="Nacimiento" sheetId="6" r:id="rId6"/>
-    <sheet name="Dificultad" sheetId="7" r:id="rId7"/>
-    <sheet name="EstimadorInterpretación" sheetId="8" r:id="rId8"/>
+    <sheet name="Dificultad" sheetId="7" r:id="rId6"/>
+    <sheet name="EstimadorInterpretación" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="46">
   <si>
     <t>Tamaños muestrales en cada edición (entrevistas realizadas)*</t>
   </si>
@@ -152,12 +151,6 @@
     <t>No ha trabajado</t>
   </si>
   <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Extranjero</t>
-  </si>
-  <si>
     <t>Con dificultad</t>
   </si>
   <si>
@@ -255,23 +248,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,35 +641,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -743,7 +736,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -796,7 +789,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -847,7 +840,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -898,7 +891,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -949,7 +942,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1002,7 +995,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1046,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1097,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1148,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1208,7 +1201,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1252,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1303,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1354,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1414,7 +1407,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1458,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1509,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1567,7 +1560,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1620,7 +1613,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1664,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1722,7 +1715,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1766,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1826,7 +1819,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1877,7 +1870,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +1921,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +1972,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2032,7 +2025,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2076,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2127,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2178,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2238,7 +2231,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2282,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2333,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
@@ -2396,81 +2389,81 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="A37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2509,35 +2502,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2604,7 +2597,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2657,7 +2650,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2708,7 +2701,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2759,7 +2752,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2810,7 +2803,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2863,7 +2856,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2914,7 +2907,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +2958,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -3016,7 +3009,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3069,7 +3062,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -3120,7 +3113,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -3171,7 +3164,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3222,7 +3215,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3275,7 +3268,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3319,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3377,7 +3370,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -3428,7 +3421,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3481,7 +3474,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3525,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -3583,7 +3576,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -3639,81 +3632,81 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3749,35 +3742,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3844,7 +3837,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3897,7 +3890,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3948,7 +3941,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3999,7 +3992,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4050,7 +4043,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4103,7 +4096,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -4154,7 +4147,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4205,7 +4198,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -4256,7 +4249,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4309,7 +4302,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +4353,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -4411,7 +4404,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4462,7 +4455,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4515,7 +4508,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -4566,7 +4559,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -4617,7 +4610,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -4668,7 +4661,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4721,7 +4714,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -4772,7 +4765,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -4823,7 +4816,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -4874,7 +4867,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4927,7 +4920,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4971,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -5029,7 +5022,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -5080,7 +5073,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5133,7 +5126,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -5184,7 +5177,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -5235,7 +5228,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
@@ -5286,7 +5279,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5339,7 +5332,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -5390,7 +5383,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5434,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
@@ -5492,7 +5485,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5545,7 +5538,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +5589,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
@@ -5647,7 +5640,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
@@ -5703,81 +5696,81 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="A41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5817,35 +5810,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5912,7 +5905,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5965,7 +5958,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6016,7 +6009,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -6067,7 +6060,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6118,7 +6111,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6171,7 +6164,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -6222,7 +6215,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -6273,7 +6266,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -6324,7 +6317,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6377,7 +6370,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -6428,7 +6421,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -6479,7 +6472,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -6530,7 +6523,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6583,7 +6576,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -6634,7 +6627,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -6685,7 +6678,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -6741,81 +6734,81 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6850,35 +6843,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6945,7 +6938,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6998,7 +6991,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7049,7 +7042,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -7100,7 +7093,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7151,7 +7144,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7204,7 +7197,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -7255,7 +7248,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +7299,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -7357,7 +7350,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7410,7 +7403,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -7461,7 +7454,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -7512,7 +7505,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7563,7 +7556,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7616,7 +7609,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -7667,7 +7660,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -7718,7 +7711,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -7769,7 +7762,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7822,7 +7815,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -7873,7 +7866,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -7924,7 +7917,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -7975,7 +7968,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8028,7 +8021,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -8079,7 +8072,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -8130,7 +8123,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -8181,7 +8174,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8234,7 +8227,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -8285,7 +8278,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -8336,7 +8329,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
@@ -8392,81 +8385,81 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="A33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8488,8 +8481,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8504,35 +8497,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8599,194 +8592,194 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>3079</v>
+        <v>574</v>
       </c>
       <c r="D4" s="4">
-        <v>3047</v>
+        <v>978</v>
       </c>
       <c r="E4" s="4">
-        <v>3072</v>
+        <v>1066</v>
       </c>
       <c r="F4" s="4">
-        <v>3127</v>
+        <v>455</v>
       </c>
       <c r="G4" s="4">
-        <v>12325</v>
+        <v>3073</v>
       </c>
       <c r="H4" s="4">
-        <v>3148</v>
+        <v>885</v>
       </c>
       <c r="I4" s="4">
-        <v>3104</v>
+        <v>1031</v>
       </c>
       <c r="J4" s="4">
-        <v>3126</v>
+        <v>1188</v>
       </c>
       <c r="K4" s="4">
-        <v>4978</v>
+        <v>861</v>
       </c>
       <c r="L4" s="4">
-        <v>14356</v>
+        <v>3965</v>
       </c>
       <c r="M4" s="4">
-        <v>6227</v>
+        <v>1459</v>
       </c>
       <c r="N4" s="4">
-        <v>6151</v>
+        <v>2009</v>
       </c>
       <c r="O4" s="4">
-        <v>6198</v>
+        <v>2254</v>
       </c>
       <c r="P4" s="4">
-        <v>8105</v>
+        <v>1316</v>
       </c>
       <c r="Q4" s="4">
-        <v>26681</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>0.96038677479725509</v>
+        <v>0.1811868686868687</v>
       </c>
       <c r="D5" s="5">
-        <v>0.94951698348395142</v>
+        <v>0.30629502035703099</v>
       </c>
       <c r="E5" s="5">
-        <v>0.9510835913312693</v>
+        <v>0.3326053042121685</v>
       </c>
       <c r="F5" s="5">
-        <v>0.92679312388855961</v>
+        <v>0.13618677042801561</v>
       </c>
       <c r="G5" s="5">
-        <v>0.9466932944158537</v>
+        <v>0.23808785930115439</v>
       </c>
       <c r="H5" s="5">
-        <v>0.95712982669504409</v>
+        <v>0.27365491651205942</v>
       </c>
       <c r="I5" s="5">
-        <v>0.94117647058823528</v>
+        <v>0.31394640682094999</v>
       </c>
       <c r="J5" s="5">
-        <v>0.9364889155182744</v>
+        <v>0.35761589403973509</v>
       </c>
       <c r="K5" s="5">
-        <v>0.93081525804038889</v>
+        <v>0.16220798794272789</v>
       </c>
       <c r="L5" s="5">
-        <v>0.93995940548680679</v>
+        <v>0.26175072616847112</v>
       </c>
       <c r="M5" s="5">
-        <v>0.95873749037721323</v>
+        <v>0.22789753202124341</v>
       </c>
       <c r="N5" s="5">
-        <v>0.94528968802827729</v>
+        <v>0.31017446348618188</v>
       </c>
       <c r="O5" s="5">
-        <v>0.94366626065773451</v>
+        <v>0.34533476329094531</v>
       </c>
       <c r="P5" s="5">
-        <v>0.92925934418711309</v>
+        <v>0.15215631864955489</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.94305810829916581</v>
+        <v>0.25086437355195151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5">
-        <v>0.2498174442190669</v>
+        <v>0.18678815489749431</v>
       </c>
       <c r="D6" s="5">
-        <v>0.24722109533468559</v>
+        <v>0.31825577611454597</v>
       </c>
       <c r="E6" s="5">
-        <v>0.24924949290060849</v>
+        <v>0.34689228766677521</v>
       </c>
       <c r="F6" s="5">
-        <v>0.25371196754563902</v>
+        <v>0.1480637813211845</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>0.21928113680691</v>
+        <v>0.223203026481715</v>
       </c>
       <c r="I6" s="5">
-        <v>0.2162162162162162</v>
+        <v>0.2600252206809584</v>
       </c>
       <c r="J6" s="5">
-        <v>0.2177486765115631</v>
+        <v>0.2996216897856242</v>
       </c>
       <c r="K6" s="5">
-        <v>0.34675397046531059</v>
+        <v>0.2171500630517024</v>
       </c>
       <c r="L6" s="5">
         <v>1</v>
       </c>
       <c r="M6" s="5">
-        <v>0.23338705445822869</v>
+        <v>0.20730321113952829</v>
       </c>
       <c r="N6" s="5">
-        <v>0.23053858551028819</v>
+        <v>0.2854504120488775</v>
       </c>
       <c r="O6" s="5">
-        <v>0.2323001386754619</v>
+        <v>0.3202614379084967</v>
       </c>
       <c r="P6" s="5">
-        <v>0.30377422135602111</v>
+        <v>0.1869849389030975</v>
       </c>
       <c r="Q6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5">
-        <v>0.49445961136984101</v>
+        <v>0.39342015078821108</v>
       </c>
       <c r="D7" s="5">
-        <v>0.4953666070557633</v>
+        <v>0.48680935788949731</v>
       </c>
       <c r="E7" s="5">
-        <v>0.49564375605033878</v>
+        <v>0.47293700088731139</v>
       </c>
       <c r="F7" s="5">
-        <v>0.38581122763726089</v>
+        <v>0.34574468085106391</v>
       </c>
       <c r="G7" s="5">
-        <v>0.46193920767587421</v>
+        <v>0.4366297243535095</v>
       </c>
       <c r="H7" s="5">
-        <v>0.50554038863015893</v>
+        <v>0.60657984921178887</v>
       </c>
       <c r="I7" s="5">
-        <v>0.5046333929442367</v>
+        <v>0.51319064211050269</v>
       </c>
       <c r="J7" s="5">
-        <v>0.50435624394966116</v>
+        <v>0.5270629991126885</v>
       </c>
       <c r="K7" s="5">
-        <v>0.61418877236273905</v>
+        <v>0.6542553191489362</v>
       </c>
       <c r="L7" s="5">
-        <v>0.53806079232412574</v>
+        <v>0.56337027564649045</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
@@ -8805,194 +8798,194 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4">
-        <v>127</v>
+        <v>1055</v>
       </c>
       <c r="D8" s="4">
-        <v>162</v>
+        <v>924</v>
       </c>
       <c r="E8" s="4">
-        <v>158</v>
+        <v>881</v>
       </c>
       <c r="F8" s="4">
-        <v>247</v>
+        <v>910</v>
       </c>
       <c r="G8" s="4">
-        <v>694</v>
+        <v>3770</v>
       </c>
       <c r="H8" s="4">
-        <v>141</v>
+        <v>1028</v>
       </c>
       <c r="I8" s="4">
-        <v>194</v>
+        <v>1020</v>
       </c>
       <c r="J8" s="4">
-        <v>212</v>
+        <v>951</v>
       </c>
       <c r="K8" s="4">
-        <v>370</v>
+        <v>1607</v>
       </c>
       <c r="L8" s="4">
-        <v>917</v>
+        <v>4606</v>
       </c>
       <c r="M8" s="4">
-        <v>268</v>
+        <v>2083</v>
       </c>
       <c r="N8" s="4">
-        <v>356</v>
+        <v>1944</v>
       </c>
       <c r="O8" s="4">
-        <v>370</v>
+        <v>1832</v>
       </c>
       <c r="P8" s="4">
-        <v>617</v>
+        <v>2517</v>
       </c>
       <c r="Q8" s="4">
-        <v>1611</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5">
-        <v>3.9613225202744851E-2</v>
+        <v>0.33301767676767668</v>
       </c>
       <c r="D9" s="5">
-        <v>5.0483016516048612E-2</v>
+        <v>0.28938302536799249</v>
       </c>
       <c r="E9" s="5">
-        <v>4.8916408668730649E-2</v>
+        <v>0.27488299531981281</v>
       </c>
       <c r="F9" s="5">
-        <v>7.320687611144043E-2</v>
+        <v>0.2723735408560311</v>
       </c>
       <c r="G9" s="5">
-        <v>5.3306705584146248E-2</v>
+        <v>0.29208956380258783</v>
       </c>
       <c r="H9" s="5">
-        <v>4.2870173304955912E-2</v>
+        <v>0.31787260358688929</v>
       </c>
       <c r="I9" s="5">
-        <v>5.8823529411764712E-2</v>
+        <v>0.31059683313032888</v>
       </c>
       <c r="J9" s="5">
-        <v>6.3511084481725585E-2</v>
+        <v>0.28627332931968691</v>
       </c>
       <c r="K9" s="5">
-        <v>6.9184741959611065E-2</v>
+        <v>0.30275056518462701</v>
       </c>
       <c r="L9" s="5">
-        <v>6.004059451319322E-2</v>
+        <v>0.30406654343807771</v>
       </c>
       <c r="M9" s="5">
-        <v>4.1262509622786762E-2</v>
+        <v>0.32536707278975319</v>
       </c>
       <c r="N9" s="5">
-        <v>5.4710311971722762E-2</v>
+        <v>0.3001389532190829</v>
       </c>
       <c r="O9" s="5">
-        <v>5.6333739342265529E-2</v>
+        <v>0.28068025126398038</v>
       </c>
       <c r="P9" s="5">
-        <v>7.0740655812886952E-2</v>
+        <v>0.29101630246271237</v>
       </c>
       <c r="Q9" s="5">
-        <v>5.6941891700834163E-2</v>
+        <v>0.29855640705756548</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5">
-        <v>0.18299711815561959</v>
+        <v>0.27984084880636612</v>
       </c>
       <c r="D10" s="5">
-        <v>0.2334293948126801</v>
+        <v>0.24509283819628649</v>
       </c>
       <c r="E10" s="5">
-        <v>0.2276657060518732</v>
+        <v>0.2336870026525199</v>
       </c>
       <c r="F10" s="5">
-        <v>0.35590778097982712</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>0.15376226826608511</v>
+        <v>0.22318714719930521</v>
       </c>
       <c r="I10" s="5">
-        <v>0.2115594329334787</v>
+        <v>0.2214502822405558</v>
       </c>
       <c r="J10" s="5">
-        <v>0.23118865866957469</v>
+        <v>0.2064698219713417</v>
       </c>
       <c r="K10" s="5">
-        <v>0.40348964013086153</v>
+        <v>0.34889274858879721</v>
       </c>
       <c r="L10" s="5">
         <v>1</v>
       </c>
       <c r="M10" s="5">
-        <v>0.16635630043451269</v>
+        <v>0.24868672397325689</v>
       </c>
       <c r="N10" s="5">
-        <v>0.22098075729360639</v>
+        <v>0.23209169054441259</v>
       </c>
       <c r="O10" s="5">
-        <v>0.2296710117939168</v>
+        <v>0.21872015281757401</v>
       </c>
       <c r="P10" s="5">
-        <v>0.38299193047796398</v>
+        <v>0.30050143266475637</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5">
-        <v>0.47388059701492541</v>
+        <v>0.50648103696591451</v>
       </c>
       <c r="D11" s="5">
-        <v>0.4550561797752809</v>
+        <v>0.47530864197530859</v>
       </c>
       <c r="E11" s="5">
-        <v>0.42702702702702711</v>
+        <v>0.48089519650655022</v>
       </c>
       <c r="F11" s="5">
-        <v>0.40032414910858988</v>
+        <v>0.36154151767977749</v>
       </c>
       <c r="G11" s="5">
-        <v>0.430788330229671</v>
+        <v>0.45009551098376321</v>
       </c>
       <c r="H11" s="5">
-        <v>0.52611940298507465</v>
+        <v>0.49351896303408538</v>
       </c>
       <c r="I11" s="5">
-        <v>0.5449438202247191</v>
+        <v>0.52469135802469136</v>
       </c>
       <c r="J11" s="5">
-        <v>0.572972972972973</v>
+        <v>0.51910480349344978</v>
       </c>
       <c r="K11" s="5">
-        <v>0.59967585089141007</v>
+        <v>0.63845848232022251</v>
       </c>
       <c r="L11" s="5">
-        <v>0.569211669770329</v>
+        <v>0.5499044890162369</v>
       </c>
       <c r="M11" s="5">
         <v>1</v>
@@ -9011,992 +9004,166 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>3</v>
+      <c r="A12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4">
-        <v>3206</v>
+        <v>1103</v>
       </c>
       <c r="D12" s="4">
-        <v>3209</v>
+        <v>830</v>
       </c>
       <c r="E12" s="4">
-        <v>3230</v>
+        <v>787</v>
       </c>
       <c r="F12" s="4">
-        <v>3374</v>
+        <v>1029</v>
       </c>
       <c r="G12" s="4">
-        <v>13019</v>
+        <v>3749</v>
       </c>
       <c r="H12" s="4">
-        <v>3289</v>
+        <v>982</v>
       </c>
       <c r="I12" s="4">
-        <v>3298</v>
+        <v>821</v>
       </c>
       <c r="J12" s="4">
-        <v>3338</v>
+        <v>728</v>
       </c>
       <c r="K12" s="4">
-        <v>5348</v>
+        <v>1516</v>
       </c>
       <c r="L12" s="4">
-        <v>15273</v>
+        <v>4047</v>
       </c>
       <c r="M12" s="4">
-        <v>6495</v>
+        <v>2085</v>
       </c>
       <c r="N12" s="4">
-        <v>6507</v>
+        <v>1651</v>
       </c>
       <c r="O12" s="4">
-        <v>6568</v>
+        <v>1515</v>
       </c>
       <c r="P12" s="4">
-        <v>8722</v>
+        <v>2545</v>
       </c>
       <c r="Q12" s="4">
-        <v>28292</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>0.34816919191919188</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>0.25994362668336979</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>0.2455538221528861</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>0.30799161927566598</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
+        <v>0.29046253970713559</v>
       </c>
       <c r="H13" s="5">
-        <v>1</v>
+        <v>0.30364873222016081</v>
       </c>
       <c r="I13" s="5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J13" s="5">
-        <v>1</v>
+        <v>0.21914509331727869</v>
       </c>
       <c r="K13" s="5">
-        <v>1</v>
+        <v>0.28560663149962318</v>
       </c>
       <c r="L13" s="5">
-        <v>1</v>
+        <v>0.26716398204383418</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>0.32567947516401119</v>
       </c>
       <c r="N13" s="5">
-        <v>1</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="O13" s="5">
-        <v>1</v>
+        <v>0.23211276237168679</v>
       </c>
       <c r="P13" s="5">
-        <v>1</v>
+        <v>0.29425367094461791</v>
       </c>
       <c r="Q13" s="5">
-        <v>1</v>
+        <v>0.27788273035109612</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5">
-        <v>0.24625547277056609</v>
+        <v>0.29421178981061619</v>
       </c>
       <c r="D14" s="5">
-        <v>0.2464859052154543</v>
+        <v>0.2213923712990131</v>
       </c>
       <c r="E14" s="5">
-        <v>0.24809893232967201</v>
+        <v>0.2099226460389437</v>
       </c>
       <c r="F14" s="5">
-        <v>0.25915968968430753</v>
+        <v>0.27447319285142707</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
       </c>
       <c r="H14" s="5">
-        <v>0.2153473449878871</v>
+        <v>0.24264887571040281</v>
       </c>
       <c r="I14" s="5">
-        <v>0.21593662017940149</v>
+        <v>0.20286632073140601</v>
       </c>
       <c r="J14" s="5">
-        <v>0.2185556210305768</v>
+        <v>0.1798863355572029</v>
       </c>
       <c r="K14" s="5">
-        <v>0.35016041380213447</v>
+        <v>0.37459846800098839</v>
       </c>
       <c r="L14" s="5">
         <v>1</v>
       </c>
       <c r="M14" s="5">
-        <v>0.22957019652198499</v>
+        <v>0.26744484350949199</v>
       </c>
       <c r="N14" s="5">
-        <v>0.22999434469107871</v>
+        <v>0.21177526936890709</v>
       </c>
       <c r="O14" s="5">
-        <v>0.23215043121730519</v>
+        <v>0.1943304258594151</v>
       </c>
       <c r="P14" s="5">
-        <v>0.308285027569631</v>
+        <v>0.32644946126218571</v>
       </c>
       <c r="Q14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5">
-        <v>0.49361046959199378</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.49316121100353472</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.49177831912302072</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.3868378812199037</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.46016541778594661</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.50638953040800616</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.50683878899646539</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0.50822168087697928</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.6131621187800963</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0.53983458221405345</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A17:M21"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>574</v>
-      </c>
-      <c r="D4" s="4">
-        <v>978</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1066</v>
-      </c>
-      <c r="F4" s="4">
-        <v>455</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3073</v>
-      </c>
-      <c r="H4" s="4">
-        <v>885</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1031</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1188</v>
-      </c>
-      <c r="K4" s="4">
-        <v>861</v>
-      </c>
-      <c r="L4" s="4">
-        <v>3965</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1459</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2009</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2254</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1316</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>7038</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.1811868686868687</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.30629502035703099</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.3326053042121685</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.13618677042801561</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.23808785930115439</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.27365491651205942</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.31394640682094999</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.35761589403973509</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.16220798794272789</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.26175072616847112</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.22789753202124341</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.31017446348618188</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.34533476329094531</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.15215631864955489</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.25086437355195151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.18678815489749431</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.31825577611454597</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.34689228766677521</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.1480637813211845</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.223203026481715</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.2600252206809584</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.2996216897856242</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.2171500630517024</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.20730321113952829</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.2854504120488775</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0.3202614379084967</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0.1869849389030975</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.39342015078821108</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.48680935788949731</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.47293700088731139</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.34574468085106391</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.4366297243535095</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.60657984921178887</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.51319064211050269</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.5270629991126885</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.6542553191489362</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.56337027564649045</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1055</v>
-      </c>
-      <c r="D8" s="4">
-        <v>924</v>
-      </c>
-      <c r="E8" s="4">
-        <v>881</v>
-      </c>
-      <c r="F8" s="4">
-        <v>910</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3770</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1028</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1020</v>
-      </c>
-      <c r="J8" s="4">
-        <v>951</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1607</v>
-      </c>
-      <c r="L8" s="4">
-        <v>4606</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2083</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1944</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1832</v>
-      </c>
-      <c r="P8" s="4">
-        <v>2517</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>8376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.33301767676767668</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.28938302536799249</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.27488299531981281</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.2723735408560311</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.29208956380258783</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.31787260358688929</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.31059683313032888</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.28627332931968691</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.30275056518462701</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.30406654343807771</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.32536707278975319</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.3001389532190829</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0.28068025126398038</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0.29101630246271237</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.29855640705756548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.27984084880636612</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.24509283819628649</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.2336870026525199</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.22318714719930521</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.2214502822405558</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.2064698219713417</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.34889274858879721</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.24868672397325689</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0.23209169054441259</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0.21872015281757401</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0.30050143266475637</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.50648103696591451</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.47530864197530859</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.48089519650655022</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.36154151767977749</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.45009551098376321</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.49351896303408538</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.52469135802469136</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.51910480349344978</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.63845848232022251</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.5499044890162369</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1103</v>
-      </c>
-      <c r="D12" s="4">
-        <v>830</v>
-      </c>
-      <c r="E12" s="4">
-        <v>787</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1029</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3749</v>
-      </c>
-      <c r="H12" s="4">
-        <v>982</v>
-      </c>
-      <c r="I12" s="4">
-        <v>821</v>
-      </c>
-      <c r="J12" s="4">
-        <v>728</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1516</v>
-      </c>
-      <c r="L12" s="4">
-        <v>4047</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2085</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1651</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1515</v>
-      </c>
-      <c r="P12" s="4">
-        <v>2545</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>7796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.34816919191919188</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.25994362668336979</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.2455538221528861</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.30799161927566598</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.29046253970713559</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.30364873222016081</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0.21914509331727869</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.28560663149962318</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0.26716398204383418</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0.32567947516401119</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0.25490196078431371</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0.23211276237168679</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0.29425367094461791</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0.27788273035109612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.29421178981061619</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.2213923712990131</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.2099226460389437</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.27447319285142707</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.24264887571040281</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.20286632073140601</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.1798863355572029</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.37459846800098839</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.26744484350949199</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0.21177526936890709</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0.1943304258594151</v>
-      </c>
-      <c r="P14" s="5">
-        <v>0.32644946126218571</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
         <v>0.52901678657074336</v>
       </c>
       <c r="D15" s="5">
@@ -10043,8 +9210,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>46</v>
+      <c r="A16" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -10096,7 +9263,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -10147,7 +9314,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -10198,7 +9365,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -10249,7 +9416,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -10302,7 +9469,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -10353,7 +9520,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -10404,7 +9571,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
@@ -10460,81 +9627,81 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10553,7 +9720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2BFC05-049C-4478-BCB2-AAE5DD56DB65}">
   <dimension ref="A1"/>
   <sheetViews>
